--- a/Overall Stats/Kaysville/Kaysville Report.xlsx
+++ b/Overall Stats/Kaysville/Kaysville Report.xlsx
@@ -1,40 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\2019\Kaysville\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Kaysville\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B0A2BB-6D29-4E07-8AB6-E44C04E0DDA8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1996E0-977E-4995-85CF-6449D3913CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5115" yWindow="1410" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{49CB2548-36B6-436D-9777-1C8A043080A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{49CB2548-36B6-436D-9777-1C8A043080A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId4"/>
+    <sheet name="2020" sheetId="5" r:id="rId4"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="62">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -199,13 +194,34 @@
   </si>
   <si>
     <t>19 Rainbow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2020 Kaysville</t>
+  </si>
+  <si>
+    <t>56 Rainbow</t>
+  </si>
+  <si>
+    <t>29 Rainbow</t>
+  </si>
+  <si>
+    <t>61 Rainbow</t>
+  </si>
+  <si>
+    <t>17 Rainbow</t>
+  </si>
+  <si>
+    <t>4 BH. Catfish 8 C. Catfish</t>
+  </si>
+  <si>
+    <t>Hot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -280,6 +296,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -349,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -408,6 +431,9 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -418,6 +444,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -688,16 +717,16 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>341</c:v>
+                  <c:v>512</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1239,19 +1268,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>1.1142061281337048</c:v>
+                  <c:v>0.73800738007380073</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.5069637883008355</c:v>
+                  <c:v>2.3985239852398523</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2785515320334262</c:v>
+                  <c:v>0.18450184501845018</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1142061281337048</c:v>
+                  <c:v>2.214022140221402</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.986072423398326</c:v>
+                  <c:v>94.464944649446494</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2897,12 +2926,12 @@
       <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2940,12 +2969,12 @@
         <f>SUM(C4)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="28"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -3026,25 +3055,25 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="27"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3125,12 +3154,12 @@
       <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="27" t="s">
+      <c r="I5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="27"/>
-      <c r="K5" s="27"/>
-      <c r="L5" s="27"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3695,8 +3724,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6123AF4-717C-48E0-8A40-9C49804B7A98}">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3724,23 +3753,23 @@
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="28" t="s">
+      <c r="B2" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
       <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="26"/>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
@@ -3810,12 +3839,12 @@
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="27" t="s">
+      <c r="G5" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -4007,11 +4036,292 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4DFF39-B442-4C92-9FD2-67F5E7CC1586}">
+  <dimension ref="A1:M13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+    </row>
+    <row r="2" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="27"/>
+      <c r="J2" s="27"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24"/>
+    </row>
+    <row r="3" spans="1:13" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+    </row>
+    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <v>23</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8"/>
+      <c r="E4" s="8">
+        <v>56</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="8">
+        <v>4</v>
+      </c>
+      <c r="H4" s="8">
+        <v>8</v>
+      </c>
+      <c r="I4" s="8">
+        <v>171</v>
+      </c>
+      <c r="K4" s="8"/>
+      <c r="L4" s="8"/>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8">
+        <v>2</v>
+      </c>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8">
+        <v>29</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G5" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="28"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="8"/>
+      <c r="M5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8">
+        <v>5</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8">
+        <v>61</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="M6" s="8"/>
+    </row>
+    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <v>27</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8">
+        <v>17</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" s="18">
+        <f>SUM(G4/$E10*100)</f>
+        <v>2.1857923497267762</v>
+      </c>
+      <c r="H7" s="18">
+        <f t="shared" ref="H7:I7" si="0">SUM(H4/$E10*100)</f>
+        <v>4.3715846994535523</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="0"/>
+        <v>93.442622950819683</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="M7" s="8"/>
+    </row>
+    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8">
+        <v>31</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8">
+        <v>8</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8"/>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="M8" s="8"/>
+    </row>
+    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8">
+        <v>14</v>
+      </c>
+      <c r="E9" s="8">
+        <v>12</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8"/>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="M9" s="8"/>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="10">
+        <f>SUM(E4:E9)</f>
+        <v>183</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="10">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="11">
+        <f>AVERAGE(E4:E9)</f>
+        <v>30.5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="G5:J5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25DC9A0-5F80-4F73-A8C6-1C50E3204330}">
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4024,13 +4334,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -4055,29 +4365,29 @@
         <v>4</v>
       </c>
       <c r="B3" s="8">
-        <f>SUM('2018'!I4+'2019'!G4)</f>
-        <v>9</v>
+        <f>SUM('2018'!I4+'2019'!G4+'2020'!G4)</f>
+        <v>13</v>
       </c>
       <c r="C3" s="8">
         <f>SUM('2018'!J4)</f>
         <v>1</v>
       </c>
       <c r="D3" s="8">
-        <f>SUM('2018'!K4)</f>
-        <v>4</v>
+        <f>SUM('2018'!K4+'2020'!H4)</f>
+        <v>12</v>
       </c>
       <c r="E3" s="8">
-        <f>SUM('2018'!L4+'2019'!H4)</f>
-        <v>341</v>
+        <f>SUM('2018'!L4+'2019'!H4+'2020'!I4)</f>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="27" t="s">
+      <c r="A4" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="27"/>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
@@ -4100,23 +4410,23 @@
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f>SUM(A3/$B$8*100)</f>
-        <v>1.1142061281337048</v>
+        <v>0.73800738007380073</v>
       </c>
       <c r="B6" s="18">
         <f>SUM(B3/$B$8*100)</f>
-        <v>2.5069637883008355</v>
+        <v>2.3985239852398523</v>
       </c>
       <c r="C6" s="18">
         <f>SUM(C3/$B$8*100)</f>
-        <v>0.2785515320334262</v>
+        <v>0.18450184501845018</v>
       </c>
       <c r="D6" s="18">
         <f>SUM(D3/$B$8*100)</f>
-        <v>1.1142061281337048</v>
+        <v>2.214022140221402</v>
       </c>
       <c r="E6" s="18">
         <f>SUM(E3/$B$8*100)</f>
-        <v>94.986072423398326</v>
+        <v>94.464944649446494</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4124,8 +4434,8 @@
         <v>35</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM('2017'!C5+'2018'!G33+'2019'!E12)</f>
-        <v>359</v>
+        <f>SUM('2017'!C5+'2018'!G33+'2019'!E12+'2020'!E10)</f>
+        <v>542</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4133,8 +4443,8 @@
         <v>36</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM('2017'!C6+'2018'!G34+'2019'!E13)</f>
-        <v>39</v>
+        <f>SUM('2017'!C6+'2018'!G34+'2019'!E13+'2020'!E11)</f>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
@@ -4143,7 +4453,7 @@
       </c>
       <c r="B10" s="17">
         <f>SUM(B8/B9)</f>
-        <v>9.2051282051282044</v>
+        <v>12.044444444444444</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">

--- a/Overall Stats/Kaysville/Kaysville Report.xlsx
+++ b/Overall Stats/Kaysville/Kaysville Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Kaysville\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F1996E0-977E-4995-85CF-6449D3913CD1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69BA89F-2D02-445A-9814-669558BDA17D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{49CB2548-36B6-436D-9777-1C8A043080A0}"/>
+    <workbookView xWindow="12465" yWindow="1035" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{49CB2548-36B6-436D-9777-1C8A043080A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -434,6 +434,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -444,9 +447,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2926,12 +2926,12 @@
       <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="E2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2969,12 +2969,12 @@
         <f>SUM(C4)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -3055,25 +3055,25 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="27" t="s">
+      <c r="I2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="27"/>
-      <c r="K2" s="27"/>
-      <c r="L2" s="27"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3154,12 +3154,12 @@
       <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="28" t="s">
+      <c r="I5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="28"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="28"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
+      <c r="L5" s="29"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3753,23 +3753,23 @@
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
@@ -3839,12 +3839,12 @@
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -4039,7 +4039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4DFF39-B442-4C92-9FD2-67F5E7CC1586}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -4071,23 +4071,23 @@
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="30" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
       <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="27" t="s">
+      <c r="G2" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
@@ -4161,12 +4161,12 @@
       <c r="F5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="28" t="s">
+      <c r="G5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="28"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -4302,7 +4302,7 @@
       <c r="A13" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="E13" s="31" t="s">
+      <c r="E13" s="27" t="s">
         <v>61</v>
       </c>
     </row>
@@ -4334,13 +4334,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
     </row>
     <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
@@ -4382,12 +4382,12 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="29"/>
       <c r="E4" s="19"/>
     </row>
     <row r="5" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">

--- a/Overall Stats/Kaysville/Kaysville Report.xlsx
+++ b/Overall Stats/Kaysville/Kaysville Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Kaysville\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B69BA89F-2D02-445A-9814-669558BDA17D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4C33D-E699-43D3-8FB4-9D04C3BF1342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12465" yWindow="1035" windowWidth="15375" windowHeight="7875" activeTab="3" xr2:uid="{49CB2548-36B6-436D-9777-1C8A043080A0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{49CB2548-36B6-436D-9777-1C8A043080A0}"/>
   </bookViews>
   <sheets>
     <sheet name="2017" sheetId="2" r:id="rId1"/>
@@ -4039,7 +4039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4DFF39-B442-4C92-9FD2-67F5E7CC1586}">
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -4320,7 +4320,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25DC9A0-5F80-4F73-A8C6-1C50E3204330}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>

--- a/Overall Stats/Kaysville/Kaysville Report.xlsx
+++ b/Overall Stats/Kaysville/Kaysville Report.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Matt\Documents\GitHub\FitzFishing\Overall Stats\Kaysville\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9E4C33D-E699-43D3-8FB4-9D04C3BF1342}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6FA7785-66A0-4CD8-8E67-13BEE41B574E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="4" xr2:uid="{49CB2548-36B6-436D-9777-1C8A043080A0}"/>
   </bookViews>
@@ -17,19 +17,27 @@
     <sheet name="2018" sheetId="1" r:id="rId2"/>
     <sheet name="2019" sheetId="4" r:id="rId3"/>
     <sheet name="2020" sheetId="5" r:id="rId4"/>
-    <sheet name="Overall Stats" sheetId="3" r:id="rId5"/>
+    <sheet name="2021" sheetId="6" r:id="rId5"/>
+    <sheet name="Overall Stats" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="69">
   <si>
     <t>Lake/Pond</t>
   </si>
@@ -215,6 +223,27 @@
   </si>
   <si>
     <t>Hot</t>
+  </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>November</t>
+  </si>
+  <si>
+    <t>10 C. Catfish 4 Wiper</t>
+  </si>
+  <si>
+    <t>2 BH. Catfish 28 Rainbow 1 Wiper</t>
+  </si>
+  <si>
+    <t>1 BH. Catfish 29 Rainbow</t>
+  </si>
+  <si>
+    <t>Fishing Report 2021 Kaysville</t>
+  </si>
+  <si>
+    <t>Wiper</t>
   </si>
 </sst>
 </file>
@@ -323,7 +352,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -367,12 +396,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color rgb="FF0070C0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -437,6 +475,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -447,6 +488,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -686,9 +736,9 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$2:$E$2</c:f>
+              <c:f>'Overall Stats'!$A$2:$F$2</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Bluegill</c:v>
                 </c:pt>
@@ -704,29 +754,35 @@
                 <c:pt idx="4">
                   <c:v>Rainbow</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>Wiper</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$3:$E$3</c:f>
+              <c:f>'Overall Stats'!$A$3:$F$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>13</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>22</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>512</c:v>
+                  <c:v>603</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1238,11 +1294,54 @@
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
+              <a:sp3d/>
+            </c:spPr>
+          </c:dPt>
           <c:cat>
             <c:strRef>
-              <c:f>'Overall Stats'!$A$5:$E$5</c:f>
+              <c:f>'Overall Stats'!$A$5:$F$5</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>Bluegill</c:v>
                 </c:pt>
@@ -1258,29 +1357,35 @@
                 <c:pt idx="4">
                   <c:v>Rainbow</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>Wiper</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Overall Stats'!$A$6:$E$6</c:f>
+              <c:f>'Overall Stats'!$A$6:$F$6</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.73800738007380073</c:v>
+                  <c:v>0.61443932411674351</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.3985239852398523</c:v>
+                  <c:v>2.4577572964669741</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.18450184501845018</c:v>
+                  <c:v>0.15360983102918588</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.214022140221402</c:v>
+                  <c:v>3.3794162826420893</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>94.464944649446494</c:v>
+                  <c:v>92.626728110599075</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.76804915514592931</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2926,12 +3031,12 @@
       <c r="D2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
     </row>
     <row r="3" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="13"/>
@@ -2969,12 +3074,12 @@
         <f>SUM(C4)</f>
         <v>4</v>
       </c>
-      <c r="E5" s="29" t="s">
+      <c r="E5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
     </row>
     <row r="6" spans="1:8" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
@@ -3055,25 +3160,25 @@
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
       <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="28" t="s">
+      <c r="I2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
     </row>
     <row r="3" spans="1:12" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
@@ -3154,12 +3259,12 @@
       <c r="H5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I5" s="29" t="s">
+      <c r="I5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="J5" s="29"/>
-      <c r="K5" s="29"/>
-      <c r="L5" s="29"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+      <c r="L5" s="30"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
@@ -3753,23 +3858,23 @@
       <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="22" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
@@ -3839,12 +3944,12 @@
       <c r="F5" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -4040,7 +4145,7 @@
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G2" sqref="G2:J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4071,23 +4176,23 @@
       <c r="A2" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
       <c r="E2" s="26" t="s">
         <v>2</v>
       </c>
       <c r="F2" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="28" t="s">
+      <c r="G2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
       <c r="K2" s="24"/>
       <c r="L2" s="24"/>
       <c r="M2" s="24"/>
@@ -4161,12 +4266,12 @@
       <c r="F5" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="G5" s="29" t="s">
+      <c r="G5" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
       <c r="M5" s="8"/>
@@ -4317,10 +4422,301 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85963768-2909-44F7-83D5-7E658A0FB2E8}">
+  <dimension ref="A1:K14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="59.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="36.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="27" x14ac:dyDescent="0.5">
+      <c r="A1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="3"/>
+      <c r="F1" s="33"/>
+    </row>
+    <row r="2" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="28" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="29" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+    </row>
+    <row r="3" spans="1:11" ht="19.5" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5"/>
+      <c r="B3" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" s="34"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K3" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="8">
+        <v>4</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="8">
+        <v>17</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3</v>
+      </c>
+      <c r="I4" s="8">
+        <v>10</v>
+      </c>
+      <c r="J4" s="8">
+        <v>91</v>
+      </c>
+      <c r="K4" s="8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="8">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="8">
+        <v>4</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H5" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="30"/>
+    </row>
+    <row r="6" spans="1:11" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="8">
+        <v>14</v>
+      </c>
+      <c r="C6" s="7"/>
+      <c r="D6" s="7"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="8">
+        <v>7</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8">
+        <v>8</v>
+      </c>
+      <c r="D7" s="8"/>
+      <c r="E7" s="8"/>
+      <c r="F7" s="8">
+        <v>14</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="H7" s="18">
+        <f>SUM(H4/$F$11*100)</f>
+        <v>2.7522935779816518</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" ref="I7:K7" si="0">SUM(I4/$F$11*100)</f>
+        <v>9.1743119266055047</v>
+      </c>
+      <c r="J7" s="18">
+        <f t="shared" si="0"/>
+        <v>83.486238532110093</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
+        <v>4.5871559633027523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>29</v>
+      </c>
+      <c r="E8" s="8"/>
+      <c r="F8" s="8">
+        <v>31</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="8">
+        <v>3</v>
+      </c>
+      <c r="F9" s="8">
+        <v>6</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8">
+        <v>4</v>
+      </c>
+      <c r="F10" s="8">
+        <v>30</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F11" s="10">
+        <f>SUM(F4:F10)</f>
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F12" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="11">
+        <f>AVERAGE(F4:F10)</f>
+        <v>15.571428571428571</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="H5:K5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E25DC9A0-5F80-4F73-A8C6-1C50E3204330}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -4333,16 +4729,16 @@
     <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-    </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+    </row>
+    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
         <v>47</v>
       </c>
@@ -4358,39 +4754,46 @@
       <c r="E2" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F2" s="35" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <f>SUM('2017'!E4)</f>
         <v>4</v>
       </c>
       <c r="B3" s="8">
-        <f>SUM('2018'!I4+'2019'!G4+'2020'!G4)</f>
-        <v>13</v>
+        <f>SUM('2018'!I4+'2019'!G4+'2020'!G4+'2021'!H4)</f>
+        <v>16</v>
       </c>
       <c r="C3" s="8">
         <f>SUM('2018'!J4)</f>
         <v>1</v>
       </c>
       <c r="D3" s="8">
-        <f>SUM('2018'!K4+'2020'!H4)</f>
-        <v>12</v>
+        <f>SUM('2018'!K4+'2020'!H4+'2021'!I4)</f>
+        <v>22</v>
       </c>
       <c r="E3" s="8">
-        <f>SUM('2018'!L4+'2019'!H4+'2020'!I4)</f>
-        <v>512</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="21" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="29" t="s">
+        <f>SUM('2018'!L4+'2019'!H4+'2020'!I4+'2021'!J4)</f>
+        <v>603</v>
+      </c>
+      <c r="F3" s="8">
+        <f>SUM('2021'!K4)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="21" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="29"/>
+      <c r="B4" s="30"/>
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
       <c r="E4" s="19"/>
     </row>
-    <row r="5" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>47</v>
       </c>
@@ -4406,57 +4809,64 @@
       <c r="E5" s="8" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="18">
         <f>SUM(A3/$B$8*100)</f>
-        <v>0.73800738007380073</v>
+        <v>0.61443932411674351</v>
       </c>
       <c r="B6" s="18">
-        <f>SUM(B3/$B$8*100)</f>
-        <v>2.3985239852398523</v>
+        <f t="shared" ref="B6:F6" si="0">SUM(B3/$B$8*100)</f>
+        <v>2.4577572964669741</v>
       </c>
       <c r="C6" s="18">
-        <f>SUM(C3/$B$8*100)</f>
-        <v>0.18450184501845018</v>
+        <f t="shared" si="0"/>
+        <v>0.15360983102918588</v>
       </c>
       <c r="D6" s="18">
-        <f>SUM(D3/$B$8*100)</f>
-        <v>2.214022140221402</v>
+        <f t="shared" si="0"/>
+        <v>3.3794162826420893</v>
       </c>
       <c r="E6" s="18">
-        <f>SUM(E3/$B$8*100)</f>
-        <v>94.464944649446494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>92.626728110599075</v>
+      </c>
+      <c r="F6" s="18">
+        <f t="shared" si="0"/>
+        <v>0.76804915514592931</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>35</v>
       </c>
       <c r="B8" s="9">
-        <f>SUM('2017'!C5+'2018'!G33+'2019'!E12+'2020'!E10)</f>
-        <v>542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <f>SUM('2017'!C5+'2018'!G33+'2019'!E12+'2020'!E10+'2021'!F11)</f>
+        <v>651</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="9">
-        <f>SUM('2017'!C6+'2018'!G34+'2019'!E13+'2020'!E11)</f>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <f>SUM('2017'!C6+'2018'!G34+'2019'!E13+'2020'!E11+'2021'!F12)</f>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B10" s="17">
         <f>SUM(B8/B9)</f>
-        <v>12.044444444444444</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+        <v>12.51923076923077</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>48</v>
       </c>
